--- a/biology/Mycologie/Physodermataceae/Physodermataceae.xlsx
+++ b/biology/Mycologie/Physodermataceae/Physodermataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Physodermatales, Physodermatomycetes
 Les Physodermataceae sont une famille de champignons chytrides, la seule de la classe des Physodermatomycetes et de l'ordre des Physodermatales.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (28 août 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (28 août 2023) :
 Oedomyces Sacc. ex Trab., 1894
 Paraphysoderma Boussiba, Zarka &amp; T.Y. James, 2011
 Physoderma Wallr., 1833 (genre type)
@@ -546,7 +560,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Famille des Physodermataceae :
 (en) F. K. Sparrow, « Phycomycetes from the Douglas Lake Region of Northern Michigan », Mycologia, Mycological Society of America (d), NYBG et Taylor &amp; Francis, vol. 44, no 6,‎ novembre 1952, p. 759-772 (ISSN 0027-5514 et 1557-2536, OCLC 1640733, DOI 10.1080/00275514.1952.12024235)
